--- a/docs/list.xlsx
+++ b/docs/list.xlsx
@@ -8,7 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Main" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="python" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Domain" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -19,16 +21,73 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+  <si>
+    <t xml:space="preserve">Base Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">python</t>
+  </si>
+  <si>
+    <t xml:space="preserve">version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ubuntu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12-slim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rule: some may have “default”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fastapi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12-slim </t>
+  </si>
+  <si>
+    <t xml:space="preserve">avicorn</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -45,6 +104,12 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -54,7 +119,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -62,6 +127,13 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -88,9 +160,49 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -216,14 +328,113 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A2:F9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26:A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.48046875" defaultRowHeight="12.8" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.25"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="3" style="1" width="8.48"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="str">
+        <f aca="false">"Dockerfile."&amp;C6&amp;"_"&amp;D6&amp;"_v"&amp;B6</f>
+        <v>Dockerfile.ubuntu_22.04_v1</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>22.04</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="str">
+        <f aca="false">"Dockerfile."&amp;C7&amp;"_"&amp;D7&amp;"_v"&amp;B7</f>
+        <v>Dockerfile.python_3.12-slim_v1</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="str">
+        <f aca="false">"Dockerfile."&amp;C8&amp;"_"&amp;D8&amp;"_v"&amp;B8</f>
+        <v>Dockerfile.python_3.12-slim_v2</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="str">
+        <f aca="false">"Dockerfile."&amp;C9&amp;"_"&amp;D9&amp;"_v"&amp;B9</f>
+        <v>Dockerfile.__v3</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -232,4 +443,140 @@
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B4:B7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A26:A27 B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="7"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:E11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="1" sqref="A26:A27 B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="11.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="24.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="9.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="7.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="7.24"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="8" width="11.55"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="1" t="n">
+        <v>22.04</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/docs/list.xlsx
+++ b/docs/list.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t xml:space="preserve">Base Image</t>
   </si>
@@ -54,22 +54,10 @@
     <t xml:space="preserve">rule: some may have “default”</t>
   </si>
   <si>
-    <t xml:space="preserve">OS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linux</t>
-  </si>
-  <si>
     <t xml:space="preserve">default</t>
   </si>
   <si>
     <t xml:space="preserve">Fastapi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12-slim </t>
   </si>
   <si>
     <t xml:space="preserve">avicorn</t>
@@ -160,7 +148,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -169,7 +157,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -189,19 +177,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -331,7 +307,7 @@
   <dimension ref="A2:F9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26:A27"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.48046875" defaultRowHeight="12.8" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -453,7 +429,7 @@
   <dimension ref="B4:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A26:A27 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -465,7 +441,7 @@
       <c r="B5" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="7"/>
+      <c r="B7" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -483,93 +459,89 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:E11"/>
+  <dimension ref="B1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="1" sqref="A26:A27 B10"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="11.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="24.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="9.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="7.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="7.24"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="8" width="11.55"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="11.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="24.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="9.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="7.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="7.24"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="7" width="11.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>22.04</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="8" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="1" t="n">
-        <v>22.04</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
